--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/MLR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/MLR/0.xlsx
@@ -1712,1144 +1712,1144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.1470207069887057</t>
+          <t>1.4578786812111315</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.2870582666779422</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.4880961764796132</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.2843190974006657</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.3173445180243166</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.8963419915422461</t>
+          <t>0.9929534713264622</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.4443112042195043</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.7888794464888297</t>
+          <t>0.9465872752623571</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>1.3299131308000893</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>0.8769914412355675</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9238216965435846</t>
+          <t>1.0348752807072052</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.2519838773207213</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.4130881964012927</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.253923295810297</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.2780979536470074</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.3258204861656215</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9248337234625829</t>
+          <t>0.9893669689728822</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>0.9340829484136767</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.9467266191536785</t>
+          <t>1.0650081150783588</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.057658313195806</t>
+          <t>0.717372422324463</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.9432619632042277</t>
+          <t>0.710537142131615</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.0606645029624604</t>
+          <t>0.6971987353648164</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2047131930863548</t>
+          <t>1.0633303239972927</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.0159338276516432</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.095088096487888</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.8913072735287721</t>
+          <t>0.94006276910291</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.1164729415239767</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.8570896248965851</t>
+          <t>1.0825332181230751</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>0.8760912023031455</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.3069259190117206</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.7192816710383889</t>
+          <t>0.8978214600701293</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.0516738988313787</t>
+          <t>0.7129809065212966</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.2176219858759956</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.1410946337130845</t>
+          <t>1.2119850402863963</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.9570992643565128</t>
+          <t>0.6889847930785747</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.0725012069573114</t>
+          <t>1.0043678133302198</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.420993267396729</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.0636968002349396</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.9478094866899713</t>
+          <t>0.9039910131992914</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.407360450701213</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.0027335456904025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.9772815536540762</t>
+          <t>0.8560509975697272</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9955389780175333</t>
+          <t>0.8093814242796467</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0731423515853777</t>
+          <t>1.0479069750743655</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.2972588231455497</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.009698412295919</t>
+          <t>0.6900501134463375</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.3150832623624376</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.0723114137999465</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.9799762350260948</t>
+          <t>0.7130557241482706</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.116066629507927</t>
+          <t>0.991504457002394</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.9297008248235221</t>
+          <t>1.0682043363969493</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.019442160685938</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8722487404843967</t>
+          <t>0.9743862254167125</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.3281234930874772</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>0.9856678815677316</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.3300017081580955</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.2712864703245907</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.3078473146756289</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>1.3556628762846852</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.2471379186030607</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.0734159316292335</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>0.9753639833507888</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.5959743974579255</t>
+          <t>0.9073844901483892</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.3180808206085282</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.9100344061420484</t>
+          <t>1.036916836888616</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.934092866197563</t>
+          <t>1.0953856075562036</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.0854798748915213</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.7971831977137503</t>
+          <t>0.9883598961814342</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>0.9776016256372255</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.3108408130847375</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.3954481142387483</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.0516738988313787</t>
+          <t>0.6955820542217899</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.4190081843291682</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.9240933230824062</t>
+          <t>0.8475364618173098</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.9025205498913955</t>
+          <t>0.865888996051208</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9026222710083854</t>
+          <t>0.9879106793840454</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.3060043008650197</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.2344973156745793</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>1.426494291720245</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.9255031551674056</t>
+          <t>0.9899407421082135</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.942644158194108</t>
+          <t>0.693709626733947</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.0520785768045744</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9955389780175333</t>
+          <t>1.0301374009128017</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.021461481150439</t>
+          <t>0.6883612051104679</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.2972582711826735</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.2537501121131012</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.0762968379223499</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.7888794464888297</t>
+          <t>1.0103601465878351</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>1.0639587102906753</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1.0481122524299775</t>
+          <t>0.7132693499542095</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.2815092914566968</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.437106250292351</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9559694190920398</t>
+          <t>1.0589481476073577</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.3584836125958102</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.3439939447554032</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>0.8520378532673691</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.00391494201009</t>
+          <t>0.7288557832743927</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.0018674631548503</t>
+          <t>0.721861183403665</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.9589564530555049</t>
+          <t>1.0818952127249652</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.3013674127866062</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.3127280945155506</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.9772815536540762</t>
+          <t>0.9000474933143681</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9955389780175333</t>
+          <t>0.9800034567556187</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.2435907716700303</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.4400438663255843</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.054257727080445</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.3941850144147079</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.5053416148520191</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>1.2932458996930971</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.9663404966413447</t>
+          <t>1.0805274811271592</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.1938948759508883</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>0.9388391104067686</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.0026171058344824</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.0731423515853777</t>
+          <t>1.0088145423966914</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.5533168654843094</t>
+          <t>0.8779329363603967</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.2453528624411827</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.4115810528437123</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.5037850517972609</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.1319739836247893</t>
+          <t>1.1785271763084753</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1.116066629507927</t>
+          <t>0.9490013427999868</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.279754236654993</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.0535000547866322</t>
+          <t>0.6859798510554578</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.1021164910086614</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.084943680294901</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.3148705832604326</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.3559777073647181</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.034863347595477</t>
+          <t>1.0234999722687037</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.8071521834065571</t>
+          <t>0.9835662015490442</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>1.0865050117171247</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.1415399133315862</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.363112912248875</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.2963392896087804</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.428684489176873</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.3934352034531547</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.9159131658080287</t>
+          <t>1.0570898196832414</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.2122328435618663</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.8874106804364631</t>
+          <t>1.3285784043436188</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.3917053369802095</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.9812575275027683</t>
+          <t>0.6765921844996663</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.3090115953312622</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.48686818128012666</t>
+          <t>0.9320466339640838</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.3285067834437596</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9669576540139202</t>
+          <t>0.6104987448759545</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.9436955841622237</t>
+          <t>1.0010728565733722</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.9863191582533053</t>
+          <t>0.849609975595349</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>0.9704323148186955</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.9166734076562697</t>
+          <t>1.0634810471826952</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.7871679555079467</t>
+          <t>1.057854019071667</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.1629952755542956</t>
+          <t>1.4473970443832243</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.3456366563811246</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.2786454709026873</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.1557466212049765</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.0743958755487097</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9240933230824062</t>
+          <t>0.9421163432709068</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.5060194989769158</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.2847614864909547</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.9177804415087799</t>
+          <t>0.8692630096132433</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.2914169541172285</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>1.4940609528202942</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.116066629507927</t>
+          <t>0.8441511981287158</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.9238216965435846</t>
+          <t>0.9738697922678823</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.0229565840755357</t>
+          <t>0.8551447672080287</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9487861635382018</t>
+          <t>0.9000558062315567</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.3873057697142035</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.1276949059128771</t>
+          <t>1.1907018510634169</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.913482998009849</t>
+          <t>1.019195672961272</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.3418939176689175</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.0133328999212305</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>1.3054151363649598</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.159256701785501</t>
+          <t>1.1955855432433569</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.3083676218673859</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.0596804528557267</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.0494496697559075</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.9384969232017539</t>
+          <t>1.0335787640807461</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.9025205498913955</t>
+          <t>0.9526455322334093</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.3993662074338802</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.3925903962263666</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.0798070452286308</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.9670582839925785</t>
+          <t>0.6143791357309208</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.3044009156548244</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.0158652972782072</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.2887356152184097</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.9955389780175333</t>
+          <t>1.0230550947975066</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9592304192096812</t>
+          <t>1.0995468775381354</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.921791925474009</t>
+          <t>1.0938423949994949</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.2812048545583254</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.3076986734582383</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.817121169099364</t>
+          <t>1.021315205228428</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>0.8201381131282921</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.0481122524299775</t>
+          <t>0.7023604641008501</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.926700193088527</t>
+          <t>0.9907259598682396</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.3359602724392865</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.3765719107546557</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>1.3256986130220025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.8355081807586552</t>
+          <t>0.9600618523743857</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.0251310648944771</t>
+          <t>0.7136761039184427</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.009386372187347</t>
+          <t>0.832665009756065</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.2914165608688353</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>1.501517451151202</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.2538226140953437</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.924689475181695</t>
+          <t>0.9844581490559812</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.4253935889348641</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.9487861635382018</t>
+          <t>0.8558824070695619</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.9822369414043401</t>
+          <t>0.6153439221212471</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.0069795997709434</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.2563599363540559</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.1628827193612377</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>0.992309189634877</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.5967604193913509</t>
+          <t>0.8969220292186516</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>0.852809270779525</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.2305913485065652</t>
+          <t>1.442890925649873</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.239892647596284</t>
+          <t>1.332264879706191</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2352777263532981</t>
+          <t>1.3118449137359693</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.2235331708702029</t>
+          <t>0.850013523285067</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.246120533914703</t>
+          <t>1.0315553636839025</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.2297361260877255</t>
+          <t>1.3300385556548664</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.2118065481862936</t>
+          <t>1.4974404368618974</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.2397640997835149</t>
+          <t>1.348579888201448</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.2376589445928066</t>
+          <t>1.321257296785377</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.2354560579860892</t>
+          <t>1.368226318015107</t>
         </is>
       </c>
     </row>
@@ -2892,170 +2892,170 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.20909898712264635</t>
+          <t>0.04208502210217544</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.25246969020414267</t>
+          <t>0.1125666731269705</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.15310121165075308</t>
+          <t>0.7707715087811663</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.2110655106800891</t>
+          <t>0.06636346801823853</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.21050617888325893</t>
+          <t>0.028636383146478442</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.2809997305205023</t>
+          <t>0.9866943625336424</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.21360793208199774</t>
+          <t>0.04769565536895202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.20624920580851208</t>
+          <t>0.0846970721013599</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.1495658304571894</t>
+          <t>0.8565855451502818</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.22984241654519844</t>
+          <t>0.06439109442441347</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.1818188451924124</t>
+          <t>0.06327032912328764</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.39813750235783685</t>
+          <t>0.9271181009770948</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.2281960773992008</t>
+          <t>0.05134874368618668</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.21194152803492855</t>
+          <t>0.08827845502605777</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.2615649983651871</t>
+          <t>0.7811296377671437</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.2216422621700042</t>
+          <t>0.06726281380747651</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.18214780635874636</t>
+          <t>0.06228254599061831</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.30294323789085165</t>
+          <t>0.9185008707388754</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.21840454000143888</t>
+          <t>0.06615482256302642</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.20228882612568339</t>
+          <t>0.06334017363760655</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.25014599211996547</t>
+          <t>0.9264823819090765</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.21927696175994357</t>
+          <t>0.06210840762105373</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.22069232576301404</t>
+          <t>0.05609776882100566</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.19796085195826763</t>
+          <t>0.9225967244042147</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.1981298189148299</t>
+          <t>0.05668465697207631</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.2507749857732678</t>
+          <t>0.0744463544047297</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.05814695895855038</t>
+          <t>0.9169955098316482</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.2102339100764583</t>
+          <t>0.06097975152491682</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.2339205878722099</t>
+          <t>0.07381631069817801</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.19644199639591275</t>
+          <t>0.9199824944122995</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/MLR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/MLR/0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MLR-values" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MLR-predicts" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MLR-10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MLR-values" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MLR-predicts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MLR-10" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,15 +47,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -424,7 +424,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -497,349 +497,349 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.005859375</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>0.87890625</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.46484375</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>0.693359375</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.171875</t>
+          <t>1.083984375</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.947265625</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1.513671875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.72265625</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0.68359375</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.103515625</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.015625</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1.083984375</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.966796875</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.455078125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.09375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.2109375</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>0.72265625</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.26953125</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.703125</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3671875</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.328125</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.455078125</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>1.064453125</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.07421875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.830078125</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>1.005859375</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.80078125</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.91796875</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.703125</t>
+          <t>1.09375</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.328125</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.72265625</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.455078125</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>0.986328125</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.171875</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.201171875</t>
+          <t>1.025390625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>0.68359375</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>0.91796875</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -849,455 +849,455 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1.484375</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.103515625</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.064453125</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0.703125</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.455078125</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.015625</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.298828125</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.103515625</t>
+          <t>1.220703125</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>0.869140625</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>0.966796875</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>1.259765625</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.2109375</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.99609375</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.376953125</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.3671875</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.91796875</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.703125</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.220703125</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.2109375</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.044921875</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.025390625</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.72265625</t>
+          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>1.083984375</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>1.435546875</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1.0546875</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.986328125</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>0.849609375</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.07421875</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.201171875</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.966796875</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.513671875</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>1.11328125</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.357421875</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.15234375</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.0546875</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.830078125</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.357421875</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.908203125</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.947265625</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.99609375</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.908203125</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.2109375</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.201171875</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.455078125</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1.50390625</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>1.064453125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>0.947265625</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>1.11328125</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.298828125</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.259765625</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1.103515625</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.298828125</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.357421875</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>0.986328125</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>1.015625</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.30859375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>0.64453125</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.09375</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>1.2109375</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1.34765625</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>0.91796875</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>0.693359375</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.376953125</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>0.78125</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>1.0546875</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>1.09375</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.966796875</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.376953125</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1307,339 +1307,339 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.87890625</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.80078125</t>
+          <t>0.693359375</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.171875</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.830078125</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.34765625</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>1.09375</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>1.474609375</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>1.09375</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.064453125</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.455078125</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.220703125</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.09375</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.19140625</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>0.869140625</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>1.328125</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.455078125</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>1.044921875</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.869140625</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>1.005859375</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1.357421875</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>1.435546875</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.947265625</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.791015625</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.80078125</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.025390625</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>1.50390625</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.07421875</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.693359375</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.78125</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1.220703125</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1.513671875</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.103515625</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.298828125</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>1.455078125</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.64453125</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.103515625</t>
+          <t>1.3671875</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.484375</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.869140625</t>
+          <t>0.830078125</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>0.87890625</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.07421875</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1712,1149 +1712,1149 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.4578786812111315</t>
+          <t>1.0359511076411438</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.2870582666779422</t>
+          <t>1.1915059596155462</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.4880961764796132</t>
+          <t>0.995853246154063</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.2843190974006657</t>
+          <t>1.0447699404798174</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.3173445180243166</t>
+          <t>0.966405052105636</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9929534713264622</t>
+          <t>1.2670396611301726</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4443112042195043</t>
+          <t>1.2249142334283336</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.9465872752623571</t>
+          <t>1.2782962837980887</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.3299131308000893</t>
+          <t>1.0690728481319198</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.8769914412355675</t>
+          <t>1.1825178265152516</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.0348752807072052</t>
+          <t>0.9924151610366665</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.2519838773207213</t>
+          <t>1.0717376527799023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.4130881964012927</t>
+          <t>1.0165532785149178</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.253923295810297</t>
+          <t>1.0447006294159176</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.2780979536470074</t>
+          <t>1.2326790897183921</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.3258204861656215</t>
+          <t>0.9915907756605767</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9893669689728822</t>
+          <t>1.2156060502937918</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.9340829484136767</t>
+          <t>1.2782962837980887</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.0650081150783588</t>
+          <t>0.9860247859675543</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.717372422324463</t>
+          <t>1.0937638228807813</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.710537142131615</t>
+          <t>1.2620013359852778</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.6971987353648164</t>
+          <t>1.224593160518689</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0633303239972927</t>
+          <t>0.9505169982268349</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0159338276516432</t>
+          <t>1.0073647323836703</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.095088096487888</t>
+          <t>1.2326790897183921</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.94006276910291</t>
+          <t>1.2740077095906102</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1164729415239767</t>
+          <t>1.2035161112799615</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.0825332181230751</t>
+          <t>0.9684961363899989</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8760912023031455</t>
+          <t>0.9849434149989779</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.3069259190117206</t>
+          <t>1.2360534968896362</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.8978214600701293</t>
+          <t>1.0571173293129803</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.7129809065212966</t>
+          <t>1.0717376527799023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2176219858759956</t>
+          <t>1.0904579388028384</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.2119850402863963</t>
+          <t>1.0372481714507442</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.6889847930785747</t>
+          <t>0.9575665403815495</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.0043678133302198</t>
+          <t>1.0803630126711365</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.420993267396729</t>
+          <t>1.0380072479398106</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.0636968002349396</t>
+          <t>1.2418653790326926</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.9039910131992914</t>
+          <t>1.042424854644617</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.407360450701213</t>
+          <t>1.043478671872887</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.0027335456904025</t>
+          <t>0.9907893512302053</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.8560509975697272</t>
+          <t>1.2801927735692167</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8093814242796467</t>
+          <t>0.9959457118443048</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0479069750743655</t>
+          <t>0.9894768905894796</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.2972588231455497</t>
+          <t>1.0486478402430728</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.6900501134463375</t>
+          <t>1.2740077095906102</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.3150832623624376</t>
+          <t>1.2249142334283336</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.0723114137999465</t>
+          <t>0.979669797011108</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.7130557241482706</t>
+          <t>1.127215860095753</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.991504457002394</t>
+          <t>1.2360534968896362</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.0682043363969493</t>
+          <t>1.0558647046753644</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.019442160685938</t>
+          <t>1.0111721198674208</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9743862254167125</t>
+          <t>1.172151256209506</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.3281234930874772</t>
+          <t>1.2602135417664608</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.9856678815677316</t>
+          <t>1.0353031726173605</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.3300017081580955</t>
+          <t>0.9929566958666992</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2712864703245907</t>
+          <t>1.2249142334283336</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.3078473146756289</t>
+          <t>1.2782962837980887</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.3556628762846852</t>
+          <t>1.1270854066560734</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.2471379186030607</t>
+          <t>1.0130981682795746</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.0734159316292335</t>
+          <t>1.204071645032173</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.9753639833507888</t>
+          <t>1.0081013449475709</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.9073844901483892</t>
+          <t>1.1240674019883796</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.3180808206085282</t>
+          <t>1.06896526987299</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.036916836888616</t>
+          <t>1.2326790897183921</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.0953856075562036</t>
+          <t>1.0129575757068439</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0854798748915213</t>
+          <t>1.017805817036687</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.9883598961814342</t>
+          <t>0.984960477947824</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.9776016256372255</t>
+          <t>1.012716225242766</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.3108408130847375</t>
+          <t>1.2360534968896362</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.3954481142387483</t>
+          <t>0.9855028217568127</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.6955820542217899</t>
+          <t>1.2662841846765518</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.4190081843291682</t>
+          <t>1.1240674019883796</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.8475364618173098</t>
+          <t>1.2602135417664608</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.865888996051208</t>
+          <t>0.9818707266824735</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9879106793840454</t>
+          <t>1.2740077095906102</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.3060043008650197</t>
+          <t>0.9866532114388196</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.2344973156745793</t>
+          <t>1.0022044468924294</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.426494291720245</t>
+          <t>1.1931126569708737</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.9899407421082135</t>
+          <t>1.214626724579301</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.693709626733947</t>
+          <t>1.0396267240974204</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.0520785768045744</t>
+          <t>1.2701869277713296</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0301374009128017</t>
+          <t>1.0227620425525463</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6883612051104679</t>
+          <t>1.1841201019652294</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.2972582711826735</t>
+          <t>1.095331219033174</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.2537501121131012</t>
+          <t>1.0468798829372197</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.0762968379223499</t>
+          <t>1.2249142334283336</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.0103601465878351</t>
+          <t>1.1526589480762237</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.0639587102906753</t>
+          <t>1.127215860095753</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.7132693499542095</t>
+          <t>1.2360534968896362</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.2815092914566968</t>
+          <t>1.2620013359852778</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.437106250292351</t>
+          <t>1.273730664824748</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.0589481476073577</t>
+          <t>1.0596825423650251</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.3584836125958102</t>
+          <t>0.9901106435132128</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.3439939447554032</t>
+          <t>1.0209868404841134</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.8520378532673691</t>
+          <t>1.0715025589055303</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.7288557832743927</t>
+          <t>1.0723962949086878</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.721861183403665</t>
+          <t>1.040709630986676</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.0818952127249652</t>
+          <t>1.1585952871791436</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.3013674127866062</t>
+          <t>1.2360534968896362</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.3127280945155506</t>
+          <t>1.2620013359852778</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.9000474933143681</t>
+          <t>1.2593472614902852</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9800034567556187</t>
+          <t>1.2683189646517588</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.2435907716700303</t>
+          <t>1.0049029740775322</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.4400438663255843</t>
+          <t>1.0389848524919592</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.054257727080445</t>
+          <t>1.2647169783100267</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.3941850144147079</t>
+          <t>1.2249142334283336</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.5053416148520191</t>
+          <t>1.0332217264328314</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.2932458996930971</t>
+          <t>1.0561258412289578</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.0805274811271592</t>
+          <t>1.0062228466517948</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.1938948759508883</t>
+          <t>1.0120835140769349</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.9388391104067686</t>
+          <t>1.0717376527799023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.0026171058344824</t>
+          <t>1.0812148123764942</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.0088145423966914</t>
+          <t>1.0813953526985467</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.8779329363603967</t>
+          <t>0.966405052105636</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.2453528624411827</t>
+          <t>1.0466963868080992</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.4115810528437123</t>
+          <t>1.1179236226864724</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.5037850517972609</t>
+          <t>0.9684961363899989</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.1785271763084753</t>
+          <t>1.2213541413459252</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.9490013427999868</t>
+          <t>1.0017847367452086</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.279754236654993</t>
+          <t>1.1321904860012217</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.6859798510554578</t>
+          <t>1.2801927735692167</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.1021164910086614</t>
+          <t>0.9743407142785198</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.084943680294901</t>
+          <t>1.2602135417664608</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.3148705832604326</t>
+          <t>1.0381080472052977</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.3559777073647181</t>
+          <t>1.0846777210821859</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.0234999722687037</t>
+          <t>1.0541478808071651</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.9835662015490442</t>
+          <t>1.0717628521926954</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.0865050117171247</t>
+          <t>1.0071971808797593</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.1415399133315862</t>
+          <t>1.0706288781374578</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.363112912248875</t>
+          <t>1.2620013359852778</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.2963392896087804</t>
+          <t>1.2801927735692167</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.428684489176873</t>
+          <t>1.2683189646517588</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.3934352034531547</t>
+          <t>1.0621966955679591</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.0570898196832414</t>
+          <t>1.161485686026062</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.2122328435618663</t>
+          <t>1.0135526907514654</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.3285784043436188</t>
+          <t>1.1928170502057753</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.3917053369802095</t>
+          <t>1.2782962837980887</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.6765921844996663</t>
+          <t>1.127215860095753</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.3090115953312622</t>
+          <t>1.2360534968896362</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.9320466339640838</t>
+          <t>1.0415807594776194</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.3285067834437596</t>
+          <t>1.057745466840076</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.6104987448759545</t>
+          <t>1.1240674019883796</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.0010728565733722</t>
+          <t>1.1871858697173756</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.849609975595349</t>
+          <t>1.228549872304237</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9704323148186955</t>
+          <t>1.2095532613315632</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.0634810471826952</t>
+          <t>1.0391765335131633</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.057854019071667</t>
+          <t>0.9617939383119248</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.4473970443832243</t>
+          <t>1.2213541413459252</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.3456366563811246</t>
+          <t>1.2360534968896362</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.2786454709026873</t>
+          <t>0.9778906564502292</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.1557466212049765</t>
+          <t>1.002853093527951</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0743958755487097</t>
+          <t>1.2683189646517588</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9421163432709068</t>
+          <t>1.2602135417664608</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.5060194989769158</t>
+          <t>1.2326790897183921</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.2847614864909547</t>
+          <t>1.0804508079117907</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.8692630096132433</t>
+          <t>1.2249142334283336</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.2914169541172285</t>
+          <t>1.2782962837980887</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.4940609528202942</t>
+          <t>1.2213541413459252</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.8441511981287158</t>
+          <t>1.0049565393782731</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.9738697922678823</t>
+          <t>1.2620013359852778</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.8551447672080287</t>
+          <t>1.0819029179724808</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9000558062315567</t>
+          <t>1.2683189646517588</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.3873057697142035</t>
+          <t>1.2602135417664608</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.1907018510634169</t>
+          <t>1.2184404089799261</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.019195672961272</t>
+          <t>1.2740077095906102</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.3418939176689175</t>
+          <t>1.1179236226864724</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.0133328999212305</t>
+          <t>1.0092850106711841</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.3054151363649598</t>
+          <t>0.947330022094407</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.1955855432433569</t>
+          <t>1.2360534968896362</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.3083676218673859</t>
+          <t>1.2620013359852778</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0596804528557267</t>
+          <t>0.9896599362906185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0494496697559075</t>
+          <t>1.229843867299154</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.0335787640807461</t>
+          <t>1.195580461380468</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.9526455322334093</t>
+          <t>1.2326790897183921</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.3993662074338802</t>
+          <t>1.0760511791077791</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.3925903962263666</t>
+          <t>1.018439599537226</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.0798070452286308</t>
+          <t>1.021162161449374</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.6143791357309208</t>
+          <t>1.1962453697746989</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.3044009156548244</t>
+          <t>1.0599326888102956</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.0158652972782072</t>
+          <t>1.2272087288062357</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.2887356152184097</t>
+          <t>1.0428829979744167</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0230550947975066</t>
+          <t>1.2557690787000446</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.0995468775381354</t>
+          <t>1.0496497054857097</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.0938423949994949</t>
+          <t>1.161485686026062</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.2812048545583254</t>
+          <t>1.0079879436996497</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.3076986734582383</t>
+          <t>0.9918901516153176</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.021315205228428</t>
+          <t>1.0116298537255217</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.8201381131282921</t>
+          <t>1.2213541413459252</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.7023604641008501</t>
+          <t>1.010250072621882</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.9907259598682396</t>
+          <t>1.087944835671035</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.3359602724392865</t>
+          <t>0.9896317573858584</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3765719107546557</t>
+          <t>1.2683189646517588</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.3256986130220025</t>
+          <t>1.1055193751276209</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.9600618523743857</t>
+          <t>1.1642254520387565</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.7136761039184427</t>
+          <t>1.0804508079117907</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.832665009756065</t>
+          <t>1.1179236226864724</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.2914165608688353</t>
+          <t>1.2676942343090118</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.501517451151202</t>
+          <t>1.208807600417083</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.2538226140953437</t>
+          <t>1.077921301440696</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9844581490559812</t>
+          <t>1.1176120161922536</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.4253935889348641</t>
+          <t>1.0447364220537723</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.8558824070695619</t>
+          <t>1.1240674019883796</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.6153439221212471</t>
+          <t>1.2602135417664608</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.0069795997709434</t>
+          <t>1.2326790897183921</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.2563599363540559</t>
+          <t>1.175409528773924</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.1628827193612377</t>
+          <t>1.1963774599743517</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.992309189634877</t>
+          <t>1.175132834711195</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.8969220292186516</t>
+          <t>1.2150730260247333</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.852809270779525</t>
+          <t>1.0453430061846285</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.442890925649873</t>
+          <t>1.0880383000900677</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.332264879706191</t>
+          <t>1.0065236425528683</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.3118449137359693</t>
+          <t>1.263125908395877</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.850013523285067</t>
+          <t>1.0447699404798174</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.0315553636839025</t>
+          <t>0.9624782109999654</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.3300385556548664</t>
+          <t>1.2740077095906102</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.4974404368618974</t>
+          <t>0.9993540759150299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.348579888201448</t>
+          <t>0.9755886894376147</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.321257296785377</t>
+          <t>1.127215860095753</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.368226318015107</t>
+          <t>1.2360534968896362</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2892,174 +2892,174 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.04208502210217544</t>
+          <t>0.22116031499658156</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.1125666731269705</t>
+          <t>0.23140009113945384</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.7707715087811663</t>
+          <t>0.1908032496864065</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.06636346801823853</t>
+          <t>0.22787547762406982</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.028636383146478442</t>
+          <t>0.2239790484007794</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9866943625336424</t>
+          <t>0.08510707857250932</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.04769565536895202</t>
+          <t>0.23015477258513983</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0846970721013599</t>
+          <t>0.21194920280285517</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8565855451502818</t>
+          <t>-0.033721994319020565</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.06439109442441347</t>
+          <t>0.2316298664422841</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.06327032912328764</t>
+          <t>0.191936436852883</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9271181009770948</t>
+          <t>0.23072682623385565</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.05134874368618668</t>
+          <t>0.23009106383107136</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.08827845502605777</t>
+          <t>0.21823621237334961</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7811296377671437</t>
+          <t>0.11648694030241202</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.06726281380747651</t>
+          <t>0.2117315123991082</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.06228254599061831</t>
+          <t>0.24370400569436856</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9185008707388754</t>
+          <t>0.11806997082417336</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.06615482256302642</t>
+          <t>0.22347184109609883</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.06334017363760655</t>
+          <t>0.21966611161490496</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.9264823819090765</t>
+          <t>0.2604275237385022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.06210840762105373</t>
+          <t>0.2170536917544664</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.05609776882100566</t>
+          <t>0.23646680770558454</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9225967244042147</t>
+          <t>-0.39272932425014906</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.05668465697207631</t>
+          <t>0.21338621914158695</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.0744463544047297</t>
+          <t>0.26701169553108045</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9169955098316482</t>
+          <t>-0.04200809703686992</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.06097975152491682</t>
+          <t>0.23744543119802</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.07381631069817801</t>
+          <t>0.20082788698031465</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9199824944122995</t>
+          <t>0.34448517131869516</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/MLR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/MLR/0.xlsx
@@ -452,14 +452,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.673828125</t>
         </is>
       </c>
     </row>
@@ -473,133 +473,133 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.986328125</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>0.869140625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.171875</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.064453125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.220703125</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>0.64453125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>1.26953125</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>1.6015625</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.11328125</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.830078125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>0.99609375</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.513671875</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.15234375</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.266462844402132</t>
+          <t>1.2034400474057658</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.28845608365266</t>
+          <t>0.9612315254500214</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.3223623274972243</t>
+          <t>1.2034400474057658</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.2939543934652922</t>
+          <t>0.9793900877383139</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.948156030463173</t>
+          <t>1.0896107174574525</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>0.9793268467570295</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>1.1135431777372338</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>1.209273018856359</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>0.9471371872832451</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.28845608365266</t>
+          <t>0.9232656945542361</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>1.1447860194124204</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>0.8643585110356848</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>1.4310987073023929</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>1.2379733268035416</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>0.9888656947674339</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>1.1709099877667573</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>1.227035130711415</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.1473327984617712</t>
+          <t>0.9492157390059762</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.3150312477470483</t>
+          <t>0.9794533287195984</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.3269442523410844</t>
+          <t>1.3343745938761187</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.948156030463173</t>
+          <t>1.2675832037475083</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.3452719517165244</t>
+          <t>1.2034400474057658</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.1965600745020745</t>
+          <t>0.1957226132850632</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.20225651881264803</t>
+          <t>0.18896296506055074</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.35004575125061177</t>
+          <t>0.5062694486976109</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/MLR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/MLR/0.xlsx
@@ -452,154 +452,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>1.11328125</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.015625</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.869140625</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.171875</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.044921875</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.703125</t>
+          <t>0.78125</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>1.259765625</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>0.80078125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.6015625</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>0.693359375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.830078125</t>
+          <t>1.298828125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.513671875</t>
+          <t>0.64453125</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>0.966796875</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.2034400474057658</t>
+          <t>1.371872830082891</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9612315254500214</t>
+          <t>0.9146697536171445</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.2034400474057658</t>
+          <t>1.2955128793431938</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.9793900877383139</t>
+          <t>0.997208656528628</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.0896107174574525</t>
+          <t>0.9622582904229364</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.9793268467570295</t>
+          <t>1.336381988527941</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.1135431777372338</t>
+          <t>1.4686686823667507</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.209273018856359</t>
+          <t>0.9135465946764325</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.9471371872832451</t>
+          <t>1.2955128793431938</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.9232656945542361</t>
+          <t>0.9646169241984316</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.1447860194124204</t>
+          <t>1.2955128793431938</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.8643585110356848</t>
+          <t>0.9622582904229364</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.4310987073023929</t>
+          <t>1.2955128793431938</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.2379733268035416</t>
+          <t>1.5199100228307127</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.9888656947674339</t>
+          <t>0.9650437245959022</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1709099877667573</t>
+          <t>1.4408580198801775</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.227035130711415</t>
+          <t>1.4348479094674003</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.9492157390059762</t>
+          <t>1.5212054746768153</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.9794533287195984</t>
+          <t>0.9637520918140834</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.3343745938761187</t>
+          <t>0.9906888502392174</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.2675832037475083</t>
+          <t>0.973074311021993</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.2034400474057658</t>
+          <t>1.0305885755048412</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.1957226132850632</t>
+          <t>0.13769115726833275</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.18896296506055074</t>
+          <t>0.16180513715575937</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5062694486976109</t>
+          <t>0.5932390555225193</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/MLR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/MLR/0.xlsx
@@ -452,154 +452,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.025390625</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.26953125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.103515625</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.298828125</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.78125</t>
+          <t>1.015625</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.80078125</t>
+          <t>1.34765625</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.80078125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>0.966796875</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.371872830082891</t>
+          <t>0.7785272865196675</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9146697536171445</t>
+          <t>0.995615197458931</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.2955128793431938</t>
+          <t>1.2074855292282956</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.997208656528628</t>
+          <t>1.1221496935952016</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.9622582904229364</t>
+          <t>1.301459125489714</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.336381988527941</t>
+          <t>1.2074855292282956</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.4686686823667507</t>
+          <t>0.7641019169230613</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.9135465946764325</t>
+          <t>0.7937155662923532</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.2955128793431938</t>
+          <t>1.2074855292282956</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.9646169241984316</t>
+          <t>1.2662190268916822</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.2955128793431938</t>
+          <t>0.9524528321324535</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.9622582904229364</t>
+          <t>1.2074855292282956</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.2955128793431938</t>
+          <t>0.995615197458931</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.5199100228307127</t>
+          <t>1.2662190268916822</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.9650437245959022</t>
+          <t>1.2074855292282956</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.4408580198801775</t>
+          <t>1.2074855292282956</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.4348479094674003</t>
+          <t>0.7785272865196675</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.5212054746768153</t>
+          <t>1.2074855292282956</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.9637520918140834</t>
+          <t>0.995615197458931</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.9906888502392174</t>
+          <t>1.2897124259570367</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.973074311021993</t>
+          <t>1.2074855292282956</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.0305885755048412</t>
+          <t>1.2662190268916822</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.13769115726833275</t>
+          <t>0.1862062780500977</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.16180513715575937</t>
+          <t>0.1539866176939122</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5932390555225193</t>
+          <t>0.6431907559709609</t>
         </is>
       </c>
     </row>
